--- a/data.xlsx
+++ b/data.xlsx
@@ -14,28 +14,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>delta_P_Load</t>
   </si>
   <si>
     <t>delta_P_RES</t>
   </si>
+  <si>
+    <t>delta_P_RES_noisy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -52,12 +59,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -71,21 +93,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -119,28 +138,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -396,22 +415,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:C422"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -421,3365 +444,4628 @@
       <c r="B2" s="4">
         <v>-3.99680288865056e-17</v>
       </c>
+      <c r="C2" s="4">
+        <v>-0.003907135059074078</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>-0.00888488439149118</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.01496777343149793</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>-0.0185649167451564</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-0.00001488538028246444</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>-0.0289527837699826</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-0.02645982830490336</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>-0.0399611721749568</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-0.04317754992109703</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="3">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>-0.0515027686690661</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-0.06837039492307767</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>-0.0636890185099007</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-0.04794775363371896</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="3">
         <v>0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>-0.0774214397558288</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-0.08557591947966695</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="3">
         <v>0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>-0.0921402749778847</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-0.1147163660538314</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="3">
         <v>0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>-0.107033783423682</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-0.1093206139137607</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="3">
         <v>0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>-0.121290224340834</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-0.1236176691315928</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="3">
         <v>0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>-0.134097856976954</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-0.1410355645596771</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="3">
         <v>0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>-0.145442941567409</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-0.1510572715052061</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="3">
         <v>0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>-0.156091183276944</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-0.1520014784544042</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="3">
         <v>0</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>-0.166300864598086</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-0.1626404380645421</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>-0.176329832593357</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-0.187528471586067</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="3">
         <v>0</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>-0.18643593432528</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-0.1961202081125225</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="3">
         <v>0</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>-0.1969702971683</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-0.2141278795054077</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="3">
         <v>0</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>-0.208460771472197</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-0.2148778633772117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="3">
         <v>0</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>-0.220261543779542</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-0.2160762606517457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="3">
         <v>0</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>-0.231547503490259</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-0.2355153965576086</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="3">
         <v>0</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>-0.241493540004276</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-0.2404825649797514</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="3">
         <v>0</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>-0.249274542721521</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-0.2689910592061513</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="3">
         <v>0</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>-0.254433554201768</v>
+      </c>
+      <c r="C25" s="4">
+        <v>-0.2641501321687452</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="3">
         <v>0</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>-0.257725784072346</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-0.2683456856139464</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="3">
         <v>0</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>-0.260114153470764</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-0.2701888751552907</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="3">
         <v>0</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>-0.26256129143044</v>
+      </c>
+      <c r="C28" s="4">
+        <v>-0.2596712359822775</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="3">
         <v>0</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>-0.266029826984794</v>
+      </c>
+      <c r="C29" s="4">
+        <v>-0.2851214526857506</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="3">
         <v>0</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>-0.271321257827361</v>
+      </c>
+      <c r="C30" s="4">
+        <v>-0.2758460132449399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="3">
         <v>0</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>-0.277707833274555</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-0.2689728089606584</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="3">
         <v>0</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>-0.28471030324374</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-0.2721755558269823</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="3">
         <v>0</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>-0.292053630868226</v>
+      </c>
+      <c r="C33" s="4">
+        <v>-0.2954838393848325</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="3">
         <v>0</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>-0.299462779281321</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-0.2959475532987491</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3">
         <v>0</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>-0.306662711616336</v>
+      </c>
+      <c r="C35" s="4">
+        <v>-0.3084240103781239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3">
         <v>0</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>-0.313629767441861</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-0.3262905065142941</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3">
         <v>0</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>-0.320595348837209</v>
+      </c>
+      <c r="C37" s="4">
+        <v>-0.3272065338366658</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="3">
         <v>0</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>-0.327560930232558</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-0.3522055495451536</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="3">
         <v>0</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>-0.334526511627907</v>
+      </c>
+      <c r="C39" s="4">
+        <v>-0.3419070691540043</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="3">
         <v>0</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>-0.341492093023256</v>
+      </c>
+      <c r="C40" s="4">
+        <v>-0.362011185226092</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="3">
         <v>0</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>-0.348418306823802</v>
+      </c>
+      <c r="C41" s="4">
+        <v>-0.3402769291430338</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="3">
         <v>0</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>-0.355049238934937</v>
+      </c>
+      <c r="C42" s="4">
+        <v>-0.3598100403665679</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="3">
         <v>0</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>-0.361562633923554</v>
+      </c>
+      <c r="C43" s="4">
+        <v>-0.3773600182336724</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="3">
         <v>0</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>-0.368233528656345</v>
+      </c>
+      <c r="C44" s="4">
+        <v>-0.3774186481425791</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="3">
         <v>0</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>-0.37533696</v>
+      </c>
+      <c r="C45" s="4">
+        <v>-0.3662984525097042</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="3">
         <v>0</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>-0.383147964821211</v>
+      </c>
+      <c r="C46" s="4">
+        <v>-0.3831143249431105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="3">
         <v>0</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>-0.39574941376231</v>
+      </c>
+      <c r="C47" s="4">
+        <v>-0.3761528787448644</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="3">
         <v>0</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>-0.416016515601394</v>
+      </c>
+      <c r="C48" s="4">
+        <v>-0.4114523348188211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="3">
         <v>0</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>-0.439286299130391</v>
+      </c>
+      <c r="C49" s="4">
+        <v>-0.4377621678733079</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="3">
         <v>0</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>-0.460837298137774</v>
+      </c>
+      <c r="C50" s="4">
+        <v>-0.4561952858245125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="3">
         <v>0</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>-0.475948046412014</v>
+      </c>
+      <c r="C51" s="4">
+        <v>-0.4821167768015015</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="3">
         <v>0</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>-0.480475175223839</v>
+      </c>
+      <c r="C52" s="4">
+        <v>-0.4594346158653185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="3">
         <v>0</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>-0.477363628432213</v>
+      </c>
+      <c r="C53" s="4">
+        <v>-0.4865968205058191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="3">
         <v>0</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>-0.468967953299513</v>
+      </c>
+      <c r="C54" s="4">
+        <v>-0.4681835262578853</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="3">
         <v>0</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>-0.456539766871257</v>
+      </c>
+      <c r="C55" s="4">
+        <v>-0.455672836172657</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="3">
         <v>0</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>-0.441330686192969</v>
+      </c>
+      <c r="C56" s="4">
+        <v>-0.4560846804802428</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="3">
         <v>0</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>-0.424592328310168</v>
+      </c>
+      <c r="C57" s="4">
+        <v>-0.4145018651435392</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="3">
         <v>0</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>-0.404329182475702</v>
+      </c>
+      <c r="C58" s="4">
+        <v>-0.3986698190490496</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="3">
         <v>0</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>-0.377971511077527</v>
+      </c>
+      <c r="C59" s="4">
+        <v>-0.3704471343084443</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="3">
         <v>0</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>-0.349102032292314</v>
+      </c>
+      <c r="C60" s="4">
+        <v>-0.3523854592875743</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="3">
         <v>0</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>-0.321380283969064</v>
+      </c>
+      <c r="C61" s="4">
+        <v>-0.304225540034289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="3">
         <v>0</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>-0.298465803956781</v>
+      </c>
+      <c r="C62" s="4">
+        <v>-0.2936332622812342</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="3">
         <v>0</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>-0.283696574881531</v>
+      </c>
+      <c r="C63" s="4">
+        <v>-0.2834320594922335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="3">
         <v>0</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>-0.275239903012905</v>
+      </c>
+      <c r="C64" s="4">
+        <v>-0.2658256719579002</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="3">
         <v>0</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>-0.270135804715382</v>
+      </c>
+      <c r="C65" s="4">
+        <v>-0.2766103543319998</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="3">
         <v>0</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>-0.26603837730248</v>
+      </c>
+      <c r="C66" s="4">
+        <v>-0.246168144568</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="3">
         <v>0</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>-0.260601718087716</v>
+      </c>
+      <c r="C67" s="4">
+        <v>-0.2586954954108202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="3">
         <v>0</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>-0.251479924384608</v>
+      </c>
+      <c r="C68" s="4">
+        <v>-0.248877166636133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3">
         <v>0</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>-0.235929714323341</v>
+      </c>
+      <c r="C69" s="4">
+        <v>-0.2457581318501379</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3">
         <v>0</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>-0.214133735805726</v>
+      </c>
+      <c r="C70" s="4">
+        <v>-0.2109462587945642</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3">
         <v>0</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>-0.189393279520338</v>
+      </c>
+      <c r="C71" s="4">
+        <v>-0.1905901633248099</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3">
         <v>0</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>-0.165045189805707</v>
+      </c>
+      <c r="C72" s="4">
+        <v>-0.1482455969579141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3">
         <v>0</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <v>-0.144426311000363</v>
+      </c>
+      <c r="C73" s="4">
+        <v>-0.1545095956970476</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3">
         <v>0</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>-0.130654024454271</v>
+      </c>
+      <c r="C74" s="4">
+        <v>-0.1303375767394793</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3">
         <v>0</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>-0.122568611353178</v>
+      </c>
+      <c r="C75" s="4">
+        <v>-0.1139711642243539</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="3">
         <v>0</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>-0.117492988139409</v>
+      </c>
+      <c r="C76" s="4">
+        <v>-0.1185653624994352</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3">
         <v>0</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <v>-0.113217037134197</v>
+      </c>
+      <c r="C77" s="4">
+        <v>-0.121384121577411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="3">
         <v>0</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <v>-0.107530640658774</v>
+      </c>
+      <c r="C78" s="4">
+        <v>-0.09255262888371722</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3">
         <v>0</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <v>-0.0982236810343744</v>
+      </c>
+      <c r="C79" s="4">
+        <v>-0.08142635806508977</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3">
         <v>0</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="4">
         <v>-0.0832965003657899</v>
+      </c>
+      <c r="C80" s="4">
+        <v>-0.08311040090583204</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="3">
         <v>0</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>-0.0633364710761497</v>
+      </c>
+      <c r="C81" s="4">
+        <v>-0.07720518199372252</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3">
         <v>0</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>-0.0404521181782736</v>
+      </c>
+      <c r="C82" s="4">
+        <v>-0.02274885763087358</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3">
         <v>0</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>-0.0167651546437778</v>
+      </c>
+      <c r="C83" s="4">
+        <v>-0.0131365766209891</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="3">
         <v>0</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>0.00560270655572111</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.02518175179313057</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="3">
         <v>0</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>0.02451268900574</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0.02058807344678317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="3">
         <v>0</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>0.0388431630251749</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0.01987977398627769</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="3">
         <v>0</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>0.0504444250597533</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.05786852871955903</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="3">
         <v>0</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <v>0.0616054916129032</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.05312016974802315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="3">
         <v>0</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <v>0.0746153791880526</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.0716117477026569</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="3">
         <v>0</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <v>0.0917631042886305</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.1017418576778825</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="3">
         <v>0</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>0.122005933028957</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.1296511109650242</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="3">
         <v>0</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <v>0.174458139142682</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.1665072561155605</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="3">
         <v>0</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <v>0.238591913306612</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.2649560433651687</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="3">
         <v>-2</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <v>0.303341704163738</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.3033369714427086</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="3">
         <v>0</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>0.357641960357045</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.3546821843477178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="3">
         <v>0</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <v>0.391225177315205</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.3970559070044166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="3">
         <v>0</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>0.411239865672205</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.4042902041138909</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="3">
         <v>0</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <v>0.425537678986756</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.4240662957026783</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="3">
         <v>0</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <v>0.43809137199995</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.4367242072421068</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="3">
         <v>0</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="4">
         <v>0.452873699452879</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0.4492863773428588</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="3">
         <v>0</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="4">
         <v>0.473857416086634</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0.4700217041996029</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="3">
         <v>0</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="4">
         <v>0.502823530003647</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0.5120948777396547</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="3">
         <v>0</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="4">
         <v>0.535935696368873</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0.5309907555022308</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="3">
         <v>0</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="4">
         <v>0.57166894056624</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.5719462578661656</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="3">
         <v>0</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="4">
         <v>0.608648078262292</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0.6032516077500669</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="3">
         <v>0</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="4">
         <v>0.645497925123574</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0.6416630683522601</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="3">
         <v>0</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="4">
         <v>0.681128252858239</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0.6747230438738818</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="3">
         <v>0</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="4">
         <v>0.71960809850705</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.7262280663697223</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="3">
         <v>0</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="4">
         <v>0.760086075238659</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0.7739995281177221</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="3">
         <v>0</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="4">
         <v>0.799124222219428</v>
+      </c>
+      <c r="C110" s="4">
+        <v>0.7851384072581111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="3">
         <v>0</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="4">
         <v>0.83328457861572</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0.8294130213180367</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="3">
         <v>0</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="4">
         <v>0.859129183593897</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0.8808978790775175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="3">
         <v>0</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="4">
         <v>0.875804854565735</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0.8714032204366778</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="3">
         <v>0</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="4">
         <v>0.888586346471711</v>
+      </c>
+      <c r="C114" s="4">
+        <v>0.8799026561961742</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="3">
         <v>0</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="4">
         <v>0.898745523312678</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0.8893155663786438</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="3">
         <v>0</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116" s="4">
         <v>0.907295678808023</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0.9114829668840058</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="3">
         <v>0</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117" s="4">
         <v>0.915250106677135</v>
+      </c>
+      <c r="C117" s="4">
+        <v>0.9183112502245664</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="3">
         <v>0</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118" s="4">
         <v>0.923641564408033</v>
+      </c>
+      <c r="C118" s="4">
+        <v>0.9232889891343945</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="3">
         <v>0</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="4">
         <v>0.933349314828419</v>
+      </c>
+      <c r="C119" s="4">
+        <v>0.9182723078148607</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="3">
         <v>0</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="4">
         <v>0.943356204958319</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0.9339493317830387</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="3">
         <v>0</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="4">
         <v>0.952183006912731</v>
+      </c>
+      <c r="C121" s="4">
+        <v>0.9519559951953227</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="3">
         <v>0</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="4">
         <v>0.958350492806658</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0.9718581355394529</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="3">
         <v>0</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="4">
         <v>0.960379434755099</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.9576786758384311</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="3">
         <v>0</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="4">
         <v>0.955773382268228</v>
+      </c>
+      <c r="C124" s="4">
+        <v>0.9419121778559923</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="3">
         <v>0</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="4">
         <v>0.94248773184751</v>
+      </c>
+      <c r="C125" s="4">
+        <v>0.9563000928446076</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="3">
         <v>0</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="4">
         <v>0.923314206195681</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0.9114577822376061</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="3">
         <v>0</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="4">
         <v>0.901261021042172</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0.896227281713049</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="3">
         <v>0</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="4">
         <v>0.879336392116418</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0.8795967123505498</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="3">
         <v>0</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="4">
         <v>0.860416273393881</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0.8672298088362572</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="3">
         <v>0</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="4">
         <v>0.842688065640876</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0.8372221138917065</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="3">
         <v>0</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="4">
         <v>0.824762181818182</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0.8208478729008587</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="3">
         <v>0</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="4">
         <v>0.806951163819766</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0.8135807185112262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="3">
         <v>0</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="4">
         <v>0.789567553539597</v>
+      </c>
+      <c r="C133" s="4">
+        <v>0.7770355828953219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="3">
         <v>0</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="4">
         <v>0.77292389287164</v>
+      </c>
+      <c r="C134" s="4">
+        <v>0.7751341827464414</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="3">
         <v>0</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135" s="4">
         <v>0.757570394962593</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0.7638980105583535</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="3">
         <v>0</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="4">
         <v>0.743925047384507</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0.7453378913630154</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="3">
         <v>0</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="4">
         <v>0.731106644697951</v>
+      </c>
+      <c r="C137" s="4">
+        <v>0.7233134012518248</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="3">
         <v>0</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="4">
         <v>0.718167143157892</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0.70471185161106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="3">
         <v>0</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="4">
         <v>0.704158499019297</v>
+      </c>
+      <c r="C139" s="4">
+        <v>0.6942350852333906</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="3">
         <v>0</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="4">
         <v>0.688139764273334</v>
+      </c>
+      <c r="C140" s="4">
+        <v>0.6799036110414228</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="3">
         <v>0</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141" s="4">
         <v>0.669790074647012</v>
+      </c>
+      <c r="C141" s="4">
+        <v>0.6701847546427325</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="3">
         <v>0</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="4">
         <v>0.649619343202485</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0.6422553973776982</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="3">
         <v>0</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="4">
         <v>0.628154723934244</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0.6435445614426726</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="3">
         <v>0</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="4">
         <v>0.605923370836782</v>
+      </c>
+      <c r="C144" s="4">
+        <v>0.6099440486123764</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="3">
         <v>0</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="4">
         <v>0.583452437904587</v>
+      </c>
+      <c r="C145" s="4">
+        <v>0.5967198715486316</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="3">
         <v>0</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="4">
         <v>0.560165318487177</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0.5498466488450146</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="3">
         <v>0</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="4">
         <v>0.533797768749921</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0.5312483991732242</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="3">
         <v>0</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="4">
         <v>0.506288149972203</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.5083373360650395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="3">
         <v>0</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="4">
         <v>0.479882596565334</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0.4890945735058343</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="3">
         <v>0</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="4">
         <v>0.456827242940621</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0.4661433527481365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="3">
         <v>0</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="4">
         <v>0.439375210051945</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0.4406165309563914</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="3">
         <v>0</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="4">
         <v>0.428993593016967</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0.4358998445010012</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="3">
         <v>0</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="4">
         <v>0.423571389568214</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0.42262777157781</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="3">
         <v>0</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="4">
         <v>0.420167233214685</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0.4012511726645499</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="3">
         <v>0</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="4">
         <v>0.41583975746538</v>
+      </c>
+      <c r="C155" s="4">
+        <v>0.4231337453492058</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="3">
         <v>0</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="4">
         <v>0.407647595829298</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0.3973822813274619</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="3">
         <v>0</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="4">
         <v>0.393254811701843</v>
+      </c>
+      <c r="C157" s="4">
+        <v>0.378991084915073</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="3">
         <v>0</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="4">
         <v>0.373656788177358</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0.3430952256694103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="3">
         <v>0</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="4">
         <v>0.349994276189815</v>
+      </c>
+      <c r="C159" s="4">
+        <v>0.3495875401013801</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="3">
         <v>0</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="4">
         <v>0.323303592965413</v>
+      </c>
+      <c r="C160" s="4">
+        <v>0.3219526838284384</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="3">
         <v>0</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="4">
         <v>0.294621055730347</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0.293747212295013</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="3">
         <v>1</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="4">
         <v>0.264877399998015</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0.2685497702653162</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="3">
         <v>0</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="4">
         <v>0.228182839083919</v>
+      </c>
+      <c r="C163" s="4">
+        <v>0.2322490697163686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="3">
         <v>0</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="4">
         <v>0.184534147783781</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0.189311517375342</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="3">
         <v>0</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="4">
         <v>0.139367538653315</v>
+      </c>
+      <c r="C165" s="4">
+        <v>0.1474047022151278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="3">
         <v>0</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="4">
         <v>0.0981192242482272</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0.1161974850746782</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="3">
         <v>0</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="4">
         <v>0.0662254171242302</v>
+      </c>
+      <c r="C167" s="4">
+        <v>0.08125715917913395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="3">
         <v>0</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="4">
         <v>0.0472387485423649</v>
+      </c>
+      <c r="C168" s="4">
+        <v>0.0399888422567363</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="3">
         <v>0</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="4">
         <v>0.0356153427666722</v>
+      </c>
+      <c r="C169" s="4">
+        <v>0.04894777319546145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="3">
         <v>0</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="4">
         <v>0.0278660460307005</v>
+      </c>
+      <c r="C170" s="4">
+        <v>0.02456352297691548</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="3">
         <v>0</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="4">
         <v>0.0210304615147939</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0.01248341554737252</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="3">
         <v>0</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="4">
         <v>0.0121481923992969</v>
+      </c>
+      <c r="C172" s="4">
+        <v>-0.0005670569665683512</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="3">
         <v>0</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="4">
         <v>-0.0017150416345197</v>
+      </c>
+      <c r="C173" s="4">
+        <v>-0.01556685015883831</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="3">
         <v>0</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174" s="4">
         <v>-0.0199835407058827</v>
+      </c>
+      <c r="C174" s="4">
+        <v>-0.01405268214204172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="3">
         <v>0</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175" s="4">
         <v>-0.0410698470966872</v>
+      </c>
+      <c r="C175" s="4">
+        <v>-0.04498908765114189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="3">
         <v>0</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="4">
         <v>-0.0649909483781092</v>
+      </c>
+      <c r="C176" s="4">
+        <v>-0.07532256146636182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="3">
         <v>0</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="4">
         <v>-0.0917638321213304</v>
+      </c>
+      <c r="C177" s="4">
+        <v>-0.0941076307590413</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="3">
         <v>0</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="4">
         <v>-0.121405485897527</v>
+      </c>
+      <c r="C178" s="4">
+        <v>-0.1153769211236187</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="3">
         <v>0</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="4">
         <v>-0.156458483705128</v>
+      </c>
+      <c r="C179" s="4">
+        <v>-0.1511282494021264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="3">
         <v>0</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="4">
         <v>-0.204772755240168</v>
+      </c>
+      <c r="C180" s="4">
+        <v>-0.2123834981552024</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="3">
         <v>0</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="4">
         <v>-0.260797531151842</v>
+      </c>
+      <c r="C181" s="4">
+        <v>-0.2575194780206561</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="3">
         <v>0</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182" s="4">
         <v>-0.317563862597374</v>
+      </c>
+      <c r="C182" s="4">
+        <v>-0.3139743490721205</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="3">
         <v>0</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="4">
         <v>-0.368102800733995</v>
+      </c>
+      <c r="C183" s="4">
+        <v>-0.372661149673134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="3">
         <v>0</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="4">
         <v>-0.405462758553587</v>
+      </c>
+      <c r="C184" s="4">
+        <v>-0.4088978575288138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="3">
         <v>0</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="4">
         <v>-0.42837446574113</v>
+      </c>
+      <c r="C185" s="4">
+        <v>-0.4272559029208399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="3">
         <v>0</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <v>-0.442795070815903</v>
+      </c>
+      <c r="C186" s="4">
+        <v>-0.4499616989896326</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="3">
         <v>0</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="4">
         <v>-0.453907299734615</v>
+      </c>
+      <c r="C187" s="4">
+        <v>-0.4572545708614548</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="3">
         <v>0</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="4">
         <v>-0.466893878453973</v>
+      </c>
+      <c r="C188" s="4">
+        <v>-0.4680187140300078</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="3">
         <v>0</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="4">
         <v>-0.486937532930686</v>
+      </c>
+      <c r="C189" s="4">
+        <v>-0.4851133522121104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="3">
         <v>0</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="4">
         <v>-0.519139118595643</v>
+      </c>
+      <c r="C190" s="4">
+        <v>-0.522604613246809</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="3">
         <v>0</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="4">
         <v>-0.564067961382834</v>
+      </c>
+      <c r="C191" s="4">
+        <v>-0.5459519606785662</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="3">
         <v>0</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="4">
         <v>-0.616813052598803</v>
+      </c>
+      <c r="C192" s="4">
+        <v>-0.6115506112461981</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="3">
         <v>0</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="4">
         <v>-0.672183768268714</v>
+      </c>
+      <c r="C193" s="4">
+        <v>-0.6884071395951438</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="3">
         <v>0</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="4">
         <v>-0.724989484417725</v>
+      </c>
+      <c r="C194" s="4">
+        <v>-0.726716472978608</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="3">
         <v>0</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="4">
         <v>-0.770055551012723</v>
+      </c>
+      <c r="C195" s="4">
+        <v>-0.7674312807464637</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="3">
         <v>0</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="4">
         <v>-0.80968187973077</v>
+      </c>
+      <c r="C196" s="4">
+        <v>-0.8112000099090521</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="3">
         <v>0</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="4">
         <v>-0.847953788044376</v>
+      </c>
+      <c r="C197" s="4">
+        <v>-0.8673685313260578</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="3">
         <v>0</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="4">
         <v>-0.884161721383456</v>
+      </c>
+      <c r="C198" s="4">
+        <v>-0.859760013396708</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="3">
         <v>0</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="4">
         <v>-0.91759612517792</v>
+      </c>
+      <c r="C199" s="4">
+        <v>-0.9101715363418937</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="3">
         <v>0</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="4">
         <v>-0.947547444857682</v>
+      </c>
+      <c r="C200" s="4">
+        <v>-0.9362028265232835</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="3">
         <v>0</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="4">
         <v>-0.973647009589803</v>
+      </c>
+      <c r="C201" s="4">
+        <v>-0.9660684764810716</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
       <c r="A202" s="3">
         <v>0</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202" s="4">
         <v>-0.997334256085183</v>
+      </c>
+      <c r="C202" s="4">
+        <v>-0.9988774574347021</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
       <c r="A203" s="3">
         <v>0</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="4">
         <v>-1.01910097974134</v>
+      </c>
+      <c r="C203" s="4">
+        <v>-1.024351858526893</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
       <c r="A204" s="3">
         <v>0</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B204" s="4">
         <v>-1.03922353339084</v>
+      </c>
+      <c r="C204" s="4">
+        <v>-1.04618493332077</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
       <c r="A205" s="3">
         <v>0</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="4">
         <v>-1.05797826986623</v>
+      </c>
+      <c r="C205" s="4">
+        <v>-1.058246053209449</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
       <c r="A206" s="3">
         <v>0</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="4">
         <v>-1.07564240443099</v>
+      </c>
+      <c r="C206" s="4">
+        <v>-1.056975236570124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
       <c r="A207" s="3">
         <v>0</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="4">
         <v>-1.09353351078654</v>
+      </c>
+      <c r="C207" s="4">
+        <v>-1.103326275554922</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
       <c r="A208" s="3">
         <v>0</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="4">
         <v>-1.11155968173024</v>
+      </c>
+      <c r="C208" s="4">
+        <v>-1.11710336827825</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
       <c r="A209" s="3">
         <v>0</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="4">
         <v>-1.12808034647833</v>
+      </c>
+      <c r="C209" s="4">
+        <v>-1.124151637085648</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
       <c r="A210" s="3">
         <v>0</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="4">
         <v>-1.14145493424703</v>
+      </c>
+      <c r="C210" s="4">
+        <v>-1.135146420328575</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
       <c r="A211" s="3">
         <v>0</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="4">
         <v>-1.15004287425258</v>
+      </c>
+      <c r="C211" s="4">
+        <v>-1.150577932784192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
       <c r="A212" s="3">
         <v>0</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="4">
         <v>-1.15284346988316</v>
+      </c>
+      <c r="C212" s="4">
+        <v>-1.137755443273739</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
       <c r="A213" s="3">
         <v>0</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213" s="4">
         <v>-1.15261320260505</v>
+      </c>
+      <c r="C213" s="4">
+        <v>-1.122169108049996</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
       <c r="A214" s="3">
         <v>0</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="4">
         <v>-1.15017284563321</v>
+      </c>
+      <c r="C214" s="4">
+        <v>-1.139167877687667</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
       <c r="A215" s="3">
         <v>0</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="4">
         <v>-1.14584327531211</v>
+      </c>
+      <c r="C215" s="4">
+        <v>-1.152526709368631</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
       <c r="A216" s="3">
         <v>0</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="4">
         <v>-1.13994536798621</v>
+      </c>
+      <c r="C216" s="4">
+        <v>-1.15016010930821</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
       <c r="A217" s="3">
         <v>0</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217" s="4">
         <v>-1.1328</v>
+      </c>
+      <c r="C217" s="4">
+        <v>-1.127306760412131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
       <c r="A218" s="3">
         <v>0</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218" s="4">
         <v>-1.12400323544241</v>
+      </c>
+      <c r="C218" s="4">
+        <v>-1.118467528271373</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
       <c r="A219" s="3">
         <v>0</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219" s="4">
         <v>-1.11349493448577</v>
+      </c>
+      <c r="C219" s="4">
+        <v>-1.105687665208106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
       <c r="A220" s="3">
         <v>0</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B220" s="4">
         <v>-1.10211166759958</v>
+      </c>
+      <c r="C220" s="4">
+        <v>-1.09590915039229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
       <c r="A221" s="3">
         <v>0</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221" s="4">
         <v>-1.09069000525337</v>
+      </c>
+      <c r="C221" s="4">
+        <v>-1.080080698671302</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
       <c r="A222" s="3">
         <v>0</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B222" s="4">
         <v>-1.08006651791666</v>
+      </c>
+      <c r="C222" s="4">
+        <v>-1.066008226048517</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
       <c r="A223" s="3">
         <v>0</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223" s="4">
         <v>-1.07118899095677</v>
+      </c>
+      <c r="C223" s="4">
+        <v>-1.059109473621589</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
       <c r="A224" s="3">
         <v>0</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="4">
         <v>-1.06476030055215</v>
+      </c>
+      <c r="C224" s="4">
+        <v>-1.073648916753343</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
       <c r="A225" s="3">
         <v>0</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225" s="4">
         <v>-1.05957064731407</v>
+      </c>
+      <c r="C225" s="4">
+        <v>-1.04546031684024</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
       <c r="A226" s="3">
         <v>0</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="4">
         <v>-1.05418754756185</v>
+      </c>
+      <c r="C226" s="4">
+        <v>-1.054510051227074</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
       <c r="A227" s="3">
         <v>0</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="4">
         <v>-1.0471785176148</v>
+      </c>
+      <c r="C227" s="4">
+        <v>-1.058513400030522</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
       <c r="A228" s="3">
         <v>0</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B228" s="4">
         <v>-1.03711107379224</v>
+      </c>
+      <c r="C228" s="4">
+        <v>-1.03020598487054</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
       <c r="A229" s="3">
         <v>0</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229" s="4">
         <v>-1.0210953616059</v>
+      </c>
+      <c r="C229" s="4">
+        <v>-1.012308985628999</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
       <c r="A230" s="3">
         <v>0</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="4">
         <v>-0.998581276476285</v>
+      </c>
+      <c r="C230" s="4">
+        <v>-0.9878496204544868</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
       <c r="A231" s="3">
         <v>0</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231" s="4">
         <v>-0.971973961055001</v>
+      </c>
+      <c r="C231" s="4">
+        <v>-0.968453915702785</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
       <c r="A232" s="3">
         <v>0</v>
       </c>
-      <c r="B232" s="5">
+      <c r="B232" s="4">
         <v>-0.943679987925592</v>
+      </c>
+      <c r="C232" s="4">
+        <v>-0.9510877398306106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
       <c r="A233" s="3">
         <v>0</v>
       </c>
-      <c r="B233" s="5">
+      <c r="B233" s="4">
         <v>-0.916105929671601</v>
+      </c>
+      <c r="C233" s="4">
+        <v>-0.9178406626374577</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
       <c r="A234" s="3">
         <v>0</v>
       </c>
-      <c r="B234" s="5">
+      <c r="B234" s="4">
         <v>-0.891015111962856</v>
+      </c>
+      <c r="C234" s="4">
+        <v>-0.8843264478802239</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
       <c r="A235" s="3">
         <v>0</v>
       </c>
-      <c r="B235" s="5">
+      <c r="B235" s="4">
         <v>-0.865700357146299</v>
+      </c>
+      <c r="C235" s="4">
+        <v>-0.8650261605695492</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
       <c r="A236" s="3">
         <v>0</v>
       </c>
-      <c r="B236" s="5">
+      <c r="B236" s="4">
         <v>-0.840107129762546</v>
+      </c>
+      <c r="C236" s="4">
+        <v>-0.8404291061632645</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
       <c r="A237" s="3">
         <v>0</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B237" s="4">
         <v>-0.814975913683459</v>
+      </c>
+      <c r="C237" s="4">
+        <v>-0.8196849994379194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
       <c r="A238" s="3">
         <v>0</v>
       </c>
-      <c r="B238" s="5">
+      <c r="B238" s="4">
         <v>-0.791047192780897</v>
+      </c>
+      <c r="C238" s="4">
+        <v>-0.7891077623677754</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
       <c r="A239" s="3">
         <v>0</v>
       </c>
-      <c r="B239" s="5">
+      <c r="B239" s="4">
         <v>-0.769061450926721</v>
+      </c>
+      <c r="C239" s="4">
+        <v>-0.7650132711103016</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
       <c r="A240" s="3">
         <v>0</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B240" s="4">
         <v>-0.749608189050873</v>
+      </c>
+      <c r="C240" s="4">
+        <v>-0.7471823827649581</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
       <c r="A241" s="3">
         <v>0</v>
       </c>
-      <c r="B241" s="5">
+      <c r="B241" s="4">
         <v>-0.732170356439404</v>
+      </c>
+      <c r="C241" s="4">
+        <v>-0.711911811442368</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
       <c r="A242" s="3">
         <v>0</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B242" s="4">
         <v>-0.71579267853532</v>
+      </c>
+      <c r="C242" s="4">
+        <v>-0.7033104034402159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
       <c r="A243" s="3">
         <v>0</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="4">
         <v>-0.699519578532553</v>
+      </c>
+      <c r="C243" s="4">
+        <v>-0.7023642980377356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
       <c r="A244" s="3">
         <v>0</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B244" s="4">
         <v>-0.682395479625035</v>
+      </c>
+      <c r="C244" s="4">
+        <v>-0.699418673340626</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
       <c r="A245" s="3">
         <v>0</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245" s="4">
         <v>-0.663507509378546</v>
+      </c>
+      <c r="C245" s="4">
+        <v>-0.6722309496210418</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
       <c r="A246" s="3">
         <v>0</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246" s="4">
         <v>-0.64284011600982</v>
+      </c>
+      <c r="C246" s="4">
+        <v>-0.6470098921265222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
       <c r="A247" s="3">
         <v>0</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247" s="4">
         <v>-0.621175758520977</v>
+      </c>
+      <c r="C247" s="4">
+        <v>-0.609871287888631</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
       <c r="A248" s="3">
         <v>0</v>
       </c>
-      <c r="B248" s="5">
+      <c r="B248" s="4">
         <v>-0.599318711385824</v>
+      </c>
+      <c r="C248" s="4">
+        <v>-0.591870383495149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
       <c r="A249" s="3">
         <v>0</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B249" s="4">
         <v>-0.578073249078172</v>
+      </c>
+      <c r="C249" s="4">
+        <v>-0.5840267996400862</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
       <c r="A250" s="3">
         <v>0</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B250" s="4">
         <v>-0.558243646071827</v>
+      </c>
+      <c r="C250" s="4">
+        <v>-0.5364549506754065</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
       <c r="A251" s="3">
         <v>0</v>
       </c>
-      <c r="B251" s="5">
+      <c r="B251" s="4">
         <v>-0.541921704699821</v>
+      </c>
+      <c r="C251" s="4">
+        <v>-0.5462499229519733</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
       <c r="A252" s="3">
         <v>0</v>
       </c>
-      <c r="B252" s="5">
+      <c r="B252" s="4">
         <v>-0.529599150943236</v>
+      </c>
+      <c r="C252" s="4">
+        <v>-0.5277557603150057</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
       <c r="A253" s="3">
         <v>0</v>
       </c>
-      <c r="B253" s="5">
+      <c r="B253" s="4">
         <v>-0.518785696464242</v>
+      </c>
+      <c r="C253" s="4">
+        <v>-0.4992704348352182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
       <c r="A254" s="3">
         <v>0</v>
       </c>
-      <c r="B254" s="5">
+      <c r="B254" s="4">
         <v>-0.506978850649762</v>
+      </c>
+      <c r="C254" s="4">
+        <v>-0.5170473266366685</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
       <c r="A255" s="3">
         <v>0</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B255" s="4">
         <v>-0.491676122886725</v>
+      </c>
+      <c r="C255" s="4">
+        <v>-0.49734700453174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
       <c r="A256" s="3">
         <v>0</v>
       </c>
-      <c r="B256" s="5">
+      <c r="B256" s="4">
         <v>-0.46870782382523</v>
+      </c>
+      <c r="C256" s="4">
+        <v>-0.460106411035129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
       <c r="A257" s="3">
         <v>0</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257" s="4">
         <v>-0.424938181799423</v>
+      </c>
+      <c r="C257" s="4">
+        <v>-0.4282234826717463</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
       <c r="A258" s="3">
         <v>0</v>
       </c>
-      <c r="B258" s="5">
+      <c r="B258" s="4">
         <v>-0.365973453632036</v>
+      </c>
+      <c r="C258" s="4">
+        <v>-0.3433273907058044</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
       <c r="A259" s="3">
         <v>0</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259" s="4">
         <v>-0.301575950612199</v>
+      </c>
+      <c r="C259" s="4">
+        <v>-0.2950381697212448</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
       <c r="A260" s="3">
         <v>0</v>
       </c>
-      <c r="B260" s="5">
+      <c r="B260" s="4">
         <v>-0.241507984029039</v>
+      </c>
+      <c r="C260" s="4">
+        <v>-0.2484471925935135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
       <c r="A261" s="3">
         <v>0</v>
       </c>
-      <c r="B261" s="5">
+      <c r="B261" s="4">
         <v>-0.195531865171679</v>
+      </c>
+      <c r="C261" s="4">
+        <v>-0.1944038733917786</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
       <c r="A262" s="3">
         <v>0</v>
       </c>
-      <c r="B262" s="5">
+      <c r="B262" s="4">
         <v>-0.16335752312492</v>
+      </c>
+      <c r="C262" s="4">
+        <v>-0.1599440028449495</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
       <c r="A263" s="3">
         <v>2</v>
       </c>
-      <c r="B263" s="5">
+      <c r="B263" s="4">
         <v>-0.134258230362748</v>
+      </c>
+      <c r="C263" s="4">
+        <v>-0.1304105519632655</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
       <c r="A264" s="3">
         <v>0</v>
       </c>
-      <c r="B264" s="5">
+      <c r="B264" s="4">
         <v>-0.108365738127771</v>
+      </c>
+      <c r="C264" s="4">
+        <v>-0.08815697585722637</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
       <c r="A265" s="3">
         <v>0</v>
       </c>
-      <c r="B265" s="5">
+      <c r="B265" s="4">
         <v>-0.085926410414951</v>
+      </c>
+      <c r="C265" s="4">
+        <v>-0.07888843300496953</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
       <c r="A266" s="3">
         <v>0</v>
       </c>
-      <c r="B266" s="5">
+      <c r="B266" s="4">
         <v>-0.06718661121925</v>
+      </c>
+      <c r="C266" s="4">
+        <v>-0.05502311970547366</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
       <c r="A267" s="3">
         <v>0</v>
       </c>
-      <c r="B267" s="5">
+      <c r="B267" s="4">
         <v>-0.0526971028192004</v>
+      </c>
+      <c r="C267" s="4">
+        <v>-0.05737638903984402</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
       <c r="A268" s="3">
         <v>0</v>
       </c>
-      <c r="B268" s="5">
+      <c r="B268" s="4">
         <v>-0.0446158547680853</v>
+      </c>
+      <c r="C268" s="4">
+        <v>-0.04722137832206508</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
       <c r="A269" s="3">
         <v>0</v>
       </c>
-      <c r="B269" s="5">
+      <c r="B269" s="4">
         <v>-0.0406839496829985</v>
+      </c>
+      <c r="C269" s="4">
+        <v>-0.03283919011985299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
       <c r="A270" s="3">
         <v>0</v>
       </c>
-      <c r="B270" s="5">
+      <c r="B270" s="4">
         <v>-0.037641936235126</v>
+      </c>
+      <c r="C270" s="4">
+        <v>-0.0421914781892639</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
       <c r="A271" s="3">
         <v>0</v>
       </c>
-      <c r="B271" s="5">
+      <c r="B271" s="4">
         <v>-0.0322303630956539</v>
+      </c>
+      <c r="C271" s="4">
+        <v>-0.02832834759207278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
       <c r="A272" s="3">
         <v>0</v>
       </c>
-      <c r="B272" s="5">
+      <c r="B272" s="4">
         <v>-0.0211897789357682</v>
+      </c>
+      <c r="C272" s="4">
+        <v>-0.00896241920798602</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
       <c r="A273" s="3">
         <v>0</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="4">
         <v>0.00234636256081987</v>
+      </c>
+      <c r="C273" s="4">
+        <v>0.007591651738586608</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
       <c r="A274" s="3">
         <v>0</v>
       </c>
-      <c r="B274" s="5">
+      <c r="B274" s="4">
         <v>0.0411283780110313</v>
+      </c>
+      <c r="C274" s="4">
+        <v>0.05137661603030565</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
       <c r="A275" s="3">
         <v>0</v>
       </c>
-      <c r="B275" s="5">
+      <c r="B275" s="4">
         <v>0.0877070037521621</v>
+      </c>
+      <c r="C275" s="4">
+        <v>0.08824593209866553</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
       <c r="A276" s="3">
         <v>0</v>
       </c>
-      <c r="B276" s="5">
+      <c r="B276" s="4">
         <v>0.134525337413348</v>
+      </c>
+      <c r="C276" s="4">
+        <v>0.1274600436713421</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
       <c r="A277" s="3">
         <v>0</v>
       </c>
-      <c r="B277" s="5">
+      <c r="B277" s="4">
         <v>0.174026476623732</v>
+      </c>
+      <c r="C277" s="4">
+        <v>0.1722471052579049</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
       <c r="A278" s="3">
         <v>0</v>
       </c>
-      <c r="B278" s="5">
+      <c r="B278" s="4">
         <v>0.199714902414273</v>
+      </c>
+      <c r="C278" s="4">
+        <v>0.1931657817001519</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
       <c r="A279" s="3">
         <v>0</v>
       </c>
-      <c r="B279" s="5">
+      <c r="B279" s="4">
         <v>0.218816935947688</v>
+      </c>
+      <c r="C279" s="4">
+        <v>0.2332996974170983</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
       <c r="A280" s="3">
         <v>0</v>
       </c>
-      <c r="B280" s="5">
+      <c r="B280" s="4">
         <v>0.235500842626122</v>
+      </c>
+      <c r="C280" s="4">
+        <v>0.226001886573359</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
       <c r="A281" s="3">
         <v>0</v>
       </c>
-      <c r="B281" s="5">
+      <c r="B281" s="4">
         <v>0.251163585720441</v>
+      </c>
+      <c r="C281" s="4">
+        <v>0.2462725810237793</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
       <c r="A282" s="3">
         <v>0</v>
       </c>
-      <c r="B282" s="5">
+      <c r="B282" s="4">
         <v>0.267202128501506</v>
+      </c>
+      <c r="C282" s="4">
+        <v>0.2696780534585189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
       <c r="A283" s="3">
         <v>0</v>
       </c>
-      <c r="B283" s="5">
+      <c r="B283" s="4">
         <v>0.28501343424018</v>
+      </c>
+      <c r="C283" s="4">
+        <v>0.2817793920330618</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
       <c r="A284" s="3">
         <v>0</v>
       </c>
-      <c r="B284" s="5">
+      <c r="B284" s="4">
         <v>0.304936536829387</v>
+      </c>
+      <c r="C284" s="4">
+        <v>0.308407964745981</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
       <c r="A285" s="3">
         <v>0</v>
       </c>
-      <c r="B285" s="5">
+      <c r="B285" s="4">
         <v>0.325574699345896</v>
+      </c>
+      <c r="C285" s="4">
+        <v>0.3274510487939601</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
       <c r="A286" s="3">
         <v>0</v>
       </c>
-      <c r="B286" s="5">
+      <c r="B286" s="4">
         <v>0.346656737348617</v>
+      </c>
+      <c r="C286" s="4">
+        <v>0.3421340778597878</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
       <c r="A287" s="3">
         <v>0</v>
       </c>
-      <c r="B287" s="5">
+      <c r="B287" s="4">
         <v>0.367939971249294</v>
+      </c>
+      <c r="C287" s="4">
+        <v>0.3635853245265532</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
       <c r="A288" s="3">
         <v>0</v>
       </c>
-      <c r="B288" s="5">
+      <c r="B288" s="4">
         <v>0.389181721459672</v>
+      </c>
+      <c r="C288" s="4">
+        <v>0.3928082705069268</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
       <c r="A289" s="3">
         <v>0</v>
       </c>
-      <c r="B289" s="5">
+      <c r="B289" s="4">
         <v>0.410196020496309</v>
+      </c>
+      <c r="C289" s="4">
+        <v>0.41943230211933</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
       <c r="A290" s="3">
         <v>0</v>
       </c>
-      <c r="B290" s="5">
+      <c r="B290" s="4">
         <v>0.431455321498736</v>
+      </c>
+      <c r="C290" s="4">
+        <v>0.4203202212711739</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
       <c r="A291" s="3">
         <v>0</v>
       </c>
-      <c r="B291" s="5">
+      <c r="B291" s="4">
         <v>0.45287465381413</v>
+      </c>
+      <c r="C291" s="4">
+        <v>0.4646633591718451</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
       <c r="A292" s="3">
         <v>0</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B292" s="4">
         <v>0.474136667211692</v>
+      </c>
+      <c r="C292" s="4">
+        <v>0.4788344439354944</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
       <c r="A293" s="3">
         <v>0</v>
       </c>
-      <c r="B293" s="5">
+      <c r="B293" s="4">
         <v>0.494924011460626</v>
+      </c>
+      <c r="C293" s="4">
+        <v>0.4952819151035369</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
       <c r="A294" s="3">
         <v>0</v>
       </c>
-      <c r="B294" s="5">
+      <c r="B294" s="4">
         <v>0.514919336330134</v>
+      </c>
+      <c r="C294" s="4">
+        <v>0.5158476937580229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
       <c r="A295" s="3">
         <v>0</v>
       </c>
-      <c r="B295" s="5">
+      <c r="B295" s="4">
         <v>0.534237589476224</v>
+      </c>
+      <c r="C295" s="4">
+        <v>0.5411947522691918</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
       <c r="A296" s="3">
         <v>0</v>
       </c>
-      <c r="B296" s="5">
+      <c r="B296" s="4">
         <v>0.553316703202563</v>
+      </c>
+      <c r="C296" s="4">
+        <v>0.5516504822511878</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
       <c r="A297" s="3">
         <v>0</v>
       </c>
-      <c r="B297" s="5">
+      <c r="B297" s="4">
         <v>0.571723233348587</v>
+      </c>
+      <c r="C297" s="4">
+        <v>0.5698570910238678</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
       <c r="A298" s="3">
         <v>0</v>
       </c>
-      <c r="B298" s="5">
+      <c r="B298" s="4">
         <v>0.589002311250156</v>
+      </c>
+      <c r="C298" s="4">
+        <v>0.6069450608445461</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
       <c r="A299" s="3">
         <v>0</v>
       </c>
-      <c r="B299" s="5">
+      <c r="B299" s="4">
         <v>0.604699068243126</v>
+      </c>
+      <c r="C299" s="4">
+        <v>0.6152769581031978</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
       <c r="A300" s="3">
         <v>0</v>
       </c>
-      <c r="B300" s="5">
+      <c r="B300" s="4">
         <v>0.618407394577081</v>
+      </c>
+      <c r="C300" s="4">
+        <v>0.6114054092165251</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
       <c r="A301" s="3">
         <v>0</v>
       </c>
-      <c r="B301" s="5">
+      <c r="B301" s="4">
         <v>0.63059528594564</v>
+      </c>
+      <c r="C301" s="4">
+        <v>0.6222316522780369</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
       <c r="A302" s="3">
         <v>0</v>
       </c>
-      <c r="B302" s="5">
+      <c r="B302" s="4">
         <v>0.641663048536607</v>
+      </c>
+      <c r="C302" s="4">
+        <v>0.6321848911618085</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
       <c r="A303" s="3">
         <v>0</v>
       </c>
-      <c r="B303" s="5">
+      <c r="B303" s="4">
         <v>0.65181696</v>
+      </c>
+      <c r="C303" s="4">
+        <v>0.6663338885614556</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
       <c r="A304" s="3">
         <v>0</v>
       </c>
-      <c r="B304" s="5">
+      <c r="B304" s="4">
         <v>0.661263297985838</v>
+      </c>
+      <c r="C304" s="4">
+        <v>0.6700423032402336</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
       <c r="A305" s="3">
         <v>0</v>
       </c>
-      <c r="B305" s="5">
+      <c r="B305" s="4">
         <v>0.670208340144138</v>
+      </c>
+      <c r="C305" s="4">
+        <v>0.6751105032771174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
       <c r="A306" s="3">
         <v>0</v>
       </c>
-      <c r="B306" s="5">
+      <c r="B306" s="4">
         <v>0.679165439323833</v>
+      </c>
+      <c r="C306" s="4">
+        <v>0.6636490498007118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
       <c r="A307" s="3">
         <v>0</v>
       </c>
-      <c r="B307" s="5">
+      <c r="B307" s="4">
         <v>0.688394680216836</v>
+      </c>
+      <c r="C307" s="4">
+        <v>0.6875491110246991</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
       <c r="A308" s="3">
         <v>0</v>
       </c>
-      <c r="B308" s="5">
+      <c r="B308" s="4">
         <v>0.697030358641126</v>
+      </c>
+      <c r="C308" s="4">
+        <v>0.7057398276290374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
       <c r="A309" s="3">
         <v>0</v>
       </c>
-      <c r="B309" s="5">
+      <c r="B309" s="4">
         <v>0.704178604779957</v>
+      </c>
+      <c r="C309" s="4">
+        <v>0.691544195323416</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
       <c r="A310" s="3">
         <v>0</v>
       </c>
-      <c r="B310" s="5">
+      <c r="B310" s="4">
         <v>0.708945548816582</v>
+      </c>
+      <c r="C310" s="4">
+        <v>0.7069361688889275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
       <c r="A311" s="3">
         <v>0</v>
       </c>
-      <c r="B311" s="5">
+      <c r="B311" s="4">
         <v>0.710506180113233</v>
+      </c>
+      <c r="C311" s="4">
+        <v>0.7265882363826297</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
       <c r="A312" s="3">
         <v>0</v>
       </c>
-      <c r="B312" s="5">
+      <c r="B312" s="4">
         <v>0.709546028831244</v>
+      </c>
+      <c r="C312" s="4">
+        <v>0.6946167276628916</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
       <c r="A313" s="3">
         <v>0</v>
       </c>
-      <c r="B313" s="5">
+      <c r="B313" s="4">
         <v>0.706829537118493</v>
+      </c>
+      <c r="C313" s="4">
+        <v>0.7082941403716458</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
       <c r="A314" s="3">
         <v>0</v>
       </c>
-      <c r="B314" s="5">
+      <c r="B314" s="4">
         <v>0.702788905765494</v>
+      </c>
+      <c r="C314" s="4">
+        <v>0.712111937714711</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
       <c r="A315" s="3">
         <v>0</v>
       </c>
-      <c r="B315" s="5">
+      <c r="B315" s="4">
         <v>0.697856335562763</v>
+      </c>
+      <c r="C315" s="4">
+        <v>0.7031972781472752</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
       <c r="A316" s="3">
         <v>0</v>
       </c>
-      <c r="B316" s="5">
+      <c r="B316" s="4">
         <v>0.692464027300812</v>
+      </c>
+      <c r="C316" s="4">
+        <v>0.6848029675260454</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
       <c r="A317" s="3">
         <v>0</v>
       </c>
-      <c r="B317" s="5">
+      <c r="B317" s="4">
         <v>0.68658474707528</v>
+      </c>
+      <c r="C317" s="4">
+        <v>0.706395406127101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
       <c r="A318" s="3">
         <v>0</v>
       </c>
-      <c r="B318" s="5">
+      <c r="B318" s="4">
         <v>0.679646418792954</v>
+      </c>
+      <c r="C318" s="4">
+        <v>0.6779359429924258</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
       <c r="A319" s="3">
         <v>0</v>
       </c>
-      <c r="B319" s="5">
+      <c r="B319" s="4">
         <v>0.672130759358834</v>
+      </c>
+      <c r="C319" s="4">
+        <v>0.692902150645707</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
       <c r="A320" s="3">
         <v>0</v>
       </c>
-      <c r="B320" s="5">
+      <c r="B320" s="4">
         <v>0.664561648518998</v>
+      </c>
+      <c r="C320" s="4">
+        <v>0.6536965700079107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
       <c r="A321" s="3">
         <v>0</v>
       </c>
-      <c r="B321" s="5">
+      <c r="B321" s="4">
         <v>0.657462966019524</v>
+      </c>
+      <c r="C321" s="4">
+        <v>0.6670002397282333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
       <c r="A322" s="3">
         <v>0</v>
       </c>
-      <c r="B322" s="5">
+      <c r="B322" s="4">
         <v>0.651332717873898</v>
+      </c>
+      <c r="C322" s="4">
+        <v>0.6715703343494835</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
       <c r="A323" s="3">
         <v>0</v>
       </c>
-      <c r="B323" s="5">
+      <c r="B323" s="4">
         <v>0.64604349713107</v>
+      </c>
+      <c r="C323" s="4">
+        <v>0.642081539639166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
       <c r="A324" s="3">
         <v>0</v>
       </c>
-      <c r="B324" s="5">
+      <c r="B324" s="4">
         <v>0.641530021396858</v>
+      </c>
+      <c r="C324" s="4">
+        <v>0.6410948198141879</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
       <c r="A325" s="3">
         <v>0</v>
       </c>
-      <c r="B325" s="5">
+      <c r="B325" s="4">
         <v>0.637906889365716</v>
+      </c>
+      <c r="C325" s="4">
+        <v>0.6306089510418934</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
       <c r="A326" s="3">
         <v>-2</v>
       </c>
-      <c r="B326" s="5">
+      <c r="B326" s="4">
         <v>0.635288699732099</v>
+      </c>
+      <c r="C326" s="4">
+        <v>0.6235811494769058</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
       <c r="A327" s="3">
         <v>0</v>
       </c>
-      <c r="B327" s="5">
+      <c r="B327" s="4">
         <v>0.633790051190461</v>
+      </c>
+      <c r="C327" s="4">
+        <v>0.6360294355632063</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
       <c r="A328" s="3">
         <v>0</v>
       </c>
-      <c r="B328" s="5">
+      <c r="B328" s="4">
         <v>0.637048658621613</v>
+      </c>
+      <c r="C328" s="4">
+        <v>0.6379775252969129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
       <c r="A329" s="3">
         <v>0</v>
       </c>
-      <c r="B329" s="5">
+      <c r="B329" s="4">
         <v>0.651127130300477</v>
+      </c>
+      <c r="C329" s="4">
+        <v>0.6484548511164809</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
       <c r="A330" s="3">
         <v>0</v>
       </c>
-      <c r="B330" s="5">
+      <c r="B330" s="4">
         <v>0.670988988107786</v>
+      </c>
+      <c r="C330" s="4">
+        <v>0.6800874202475443</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
       <c r="A331" s="3">
         <v>0</v>
       </c>
-      <c r="B331" s="5">
+      <c r="B331" s="4">
         <v>0.691117123467655</v>
+      </c>
+      <c r="C331" s="4">
+        <v>0.698638667688938</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
       <c r="A332" s="3">
         <v>0</v>
       </c>
-      <c r="B332" s="5">
+      <c r="B332" s="4">
         <v>0.705994427804201</v>
+      </c>
+      <c r="C332" s="4">
+        <v>0.688415496036509</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
       <c r="A333" s="3">
         <v>0</v>
       </c>
-      <c r="B333" s="5">
+      <c r="B333" s="4">
         <v>0.710314133854715</v>
+      </c>
+      <c r="C333" s="4">
+        <v>0.6882742981780838</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
       <c r="A334" s="3">
         <v>0</v>
       </c>
-      <c r="B334" s="5">
+      <c r="B334" s="4">
         <v>0.705996495919511</v>
+      </c>
+      <c r="C334" s="4">
+        <v>0.6979942108757573</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
       <c r="A335" s="3">
         <v>0</v>
       </c>
-      <c r="B335" s="5">
+      <c r="B335" s="4">
         <v>0.697306864511674</v>
+      </c>
+      <c r="C335" s="4">
+        <v>0.6946564365468059</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
       <c r="A336" s="3">
         <v>0</v>
       </c>
-      <c r="B336" s="5">
+      <c r="B336" s="4">
         <v>0.686988052340239</v>
+      </c>
+      <c r="C336" s="4">
+        <v>0.6783254157427335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
       <c r="A337" s="3">
         <v>0</v>
       </c>
-      <c r="B337" s="5">
+      <c r="B337" s="4">
         <v>0.677782872114239</v>
+      </c>
+      <c r="C337" s="4">
+        <v>0.6953921315189406</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
       <c r="A338" s="3">
         <v>0</v>
       </c>
-      <c r="B338" s="5">
+      <c r="B338" s="4">
         <v>0.672434136542708</v>
+      </c>
+      <c r="C338" s="4">
+        <v>0.6773851553828647</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
       <c r="A339" s="3">
         <v>0</v>
       </c>
-      <c r="B339" s="5">
+      <c r="B339" s="4">
         <v>0.672884326412285</v>
+      </c>
+      <c r="C339" s="4">
+        <v>0.6678318123462431</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
       <c r="A340" s="3">
         <v>0</v>
       </c>
-      <c r="B340" s="5">
+      <c r="B340" s="4">
         <v>0.677278875984021</v>
+      </c>
+      <c r="C340" s="4">
+        <v>0.6636939667650308</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
       <c r="A341" s="3">
         <v>0</v>
       </c>
-      <c r="B341" s="5">
+      <c r="B341" s="4">
         <v>0.68339082374208</v>
+      </c>
+      <c r="C341" s="4">
+        <v>0.7055520769792354</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
       <c r="A342" s="3">
         <v>0</v>
       </c>
-      <c r="B342" s="5">
+      <c r="B342" s="4">
         <v>0.689051609776014</v>
+      </c>
+      <c r="C342" s="4">
+        <v>0.6699667359443392</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
       <c r="A343" s="3">
         <v>0</v>
       </c>
-      <c r="B343" s="5">
+      <c r="B343" s="4">
         <v>0.692092674175375</v>
+      </c>
+      <c r="C343" s="4">
+        <v>0.6995620577867355</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
       <c r="A344" s="3">
         <v>0</v>
       </c>
-      <c r="B344" s="5">
+      <c r="B344" s="4">
         <v>0.690363311877445</v>
+      </c>
+      <c r="C344" s="4">
+        <v>0.70105500704182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
       <c r="A345" s="3">
         <v>0</v>
       </c>
-      <c r="B345" s="5">
+      <c r="B345" s="4">
         <v>0.683231957932761</v>
+      </c>
+      <c r="C345" s="4">
+        <v>0.6872145033056908</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
       <c r="A346" s="3">
         <v>0</v>
       </c>
-      <c r="B346" s="5">
+      <c r="B346" s="4">
         <v>0.67239936</v>
+      </c>
+      <c r="C346" s="4">
+        <v>0.6676323888846625</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
       <c r="A347" s="3">
         <v>0</v>
       </c>
-      <c r="B347" s="5">
+      <c r="B347" s="4">
         <v>0.659722016929327</v>
+      </c>
+      <c r="C347" s="4">
+        <v>0.6555138342428256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
       <c r="A348" s="3">
         <v>0</v>
       </c>
-      <c r="B348" s="5">
+      <c r="B348" s="4">
         <v>0.647056427570906</v>
+      </c>
+      <c r="C348" s="4">
+        <v>0.646588793944169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
       <c r="A349" s="3">
         <v>0</v>
       </c>
-      <c r="B349" s="5">
+      <c r="B349" s="4">
         <v>0.6362590907749</v>
+      </c>
+      <c r="C349" s="4">
+        <v>0.6427178109867945</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
       <c r="A350" s="3">
         <v>0</v>
       </c>
-      <c r="B350" s="5">
+      <c r="B350" s="4">
         <v>0.628296806593542</v>
+      </c>
+      <c r="C350" s="4">
+        <v>0.6367722057321663</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
       <c r="A351" s="3">
         <v>0</v>
       </c>
-      <c r="B351" s="5">
+      <c r="B351" s="4">
         <v>0.621304836881281</v>
+      </c>
+      <c r="C351" s="4">
+        <v>0.6237383120555193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
       <c r="A352" s="3">
         <v>0</v>
       </c>
-      <c r="B352" s="5">
+      <c r="B352" s="4">
         <v>0.614749143597419</v>
+      </c>
+      <c r="C352" s="4">
+        <v>0.6266615318806148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
       <c r="A353" s="3">
         <v>0</v>
       </c>
-      <c r="B353" s="5">
+      <c r="B353" s="4">
         <v>0.608235923955558</v>
+      </c>
+      <c r="C353" s="4">
+        <v>0.6170497620998764</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
       <c r="A354" s="3">
         <v>0</v>
       </c>
-      <c r="B354" s="5">
+      <c r="B354" s="4">
         <v>0.601371375169299</v>
+      </c>
+      <c r="C354" s="4">
+        <v>0.5988578086868144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
       <c r="A355" s="3">
         <v>0</v>
       </c>
-      <c r="B355" s="5">
+      <c r="B355" s="4">
         <v>0.593768911652604</v>
+      </c>
+      <c r="C355" s="4">
+        <v>0.5900425883533646</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
       <c r="A356" s="3">
         <v>0</v>
       </c>
-      <c r="B356" s="5">
+      <c r="B356" s="4">
         <v>0.585380164645406</v>
+      </c>
+      <c r="C356" s="4">
+        <v>0.575657054518059</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
       <c r="A357" s="3">
         <v>0</v>
       </c>
-      <c r="B357" s="5">
+      <c r="B357" s="4">
         <v>0.576174356550163</v>
+      </c>
+      <c r="C357" s="4">
+        <v>0.5782013973417841</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
       <c r="A358" s="3">
         <v>0</v>
       </c>
-      <c r="B358" s="5">
+      <c r="B358" s="4">
         <v>0.565996704714622</v>
+      </c>
+      <c r="C358" s="4">
+        <v>0.5693585643753589</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
       <c r="A359" s="3">
         <v>0</v>
       </c>
-      <c r="B359" s="5">
+      <c r="B359" s="4">
         <v>0.554692426486535</v>
+      </c>
+      <c r="C359" s="4">
+        <v>0.5467488527137927</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
       <c r="A360" s="3">
         <v>0</v>
       </c>
-      <c r="B360" s="5">
+      <c r="B360" s="4">
         <v>0.54210673921365</v>
+      </c>
+      <c r="C360" s="4">
+        <v>0.5351844334546132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
       <c r="A361" s="3">
         <v>0</v>
       </c>
-      <c r="B361" s="5">
+      <c r="B361" s="4">
         <v>0.524767613674003</v>
+      </c>
+      <c r="C361" s="4">
+        <v>0.5231267524278393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
       <c r="A362" s="3">
         <v>0</v>
       </c>
-      <c r="B362" s="5">
+      <c r="B362" s="4">
         <v>0.49505959271</v>
+      </c>
+      <c r="C362" s="4">
+        <v>0.498732427679248</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
       <c r="A363" s="3">
         <v>0</v>
       </c>
-      <c r="B363" s="5">
+      <c r="B363" s="4">
         <v>0.459037780940987</v>
+      </c>
+      <c r="C363" s="4">
+        <v>0.4804219523563951</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
       <c r="A364" s="3">
         <v>0</v>
       </c>
-      <c r="B364" s="5">
+      <c r="B364" s="4">
         <v>0.423719409702594</v>
+      </c>
+      <c r="C364" s="4">
+        <v>0.42271027577017</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
       <c r="A365" s="3">
         <v>0</v>
       </c>
-      <c r="B365" s="5">
+      <c r="B365" s="4">
         <v>0.396121710330437</v>
+      </c>
+      <c r="C365" s="4">
+        <v>0.4017336031114377</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
       <c r="A366" s="3">
         <v>0</v>
       </c>
-      <c r="B366" s="5">
+      <c r="B366" s="4">
         <v>0.38314523619807</v>
+      </c>
+      <c r="C366" s="4">
+        <v>0.3691141809209472</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
       <c r="A367" s="3">
         <v>0</v>
       </c>
-      <c r="B367" s="5">
+      <c r="B367" s="4">
         <v>0.383094838786125</v>
+      </c>
+      <c r="C367" s="4">
+        <v>0.3844679927289401</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
       <c r="A368" s="3">
         <v>0</v>
       </c>
-      <c r="B368" s="5">
+      <c r="B368" s="4">
         <v>0.389538882906967</v>
+      </c>
+      <c r="C368" s="4">
+        <v>0.383394677633699</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
       <c r="A369" s="3">
         <v>0</v>
       </c>
-      <c r="B369" s="5">
+      <c r="B369" s="4">
         <v>0.398231185355543</v>
+      </c>
+      <c r="C369" s="4">
+        <v>0.4151100530461062</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
       <c r="A370" s="3">
         <v>0</v>
       </c>
-      <c r="B370" s="5">
+      <c r="B370" s="4">
         <v>0.4049255629268</v>
+      </c>
+      <c r="C370" s="4">
+        <v>0.4003877061598666</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
       <c r="A371" s="3">
         <v>0</v>
       </c>
-      <c r="B371" s="5">
+      <c r="B371" s="4">
         <v>0.405375832415683</v>
+      </c>
+      <c r="C371" s="4">
+        <v>0.3946486947237351</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
       <c r="A372" s="3">
         <v>0</v>
       </c>
-      <c r="B372" s="5">
+      <c r="B372" s="4">
         <v>0.397028194822019</v>
+      </c>
+      <c r="C372" s="4">
+        <v>0.3959137453755779</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
       <c r="A373" s="3">
         <v>0</v>
       </c>
-      <c r="B373" s="5">
+      <c r="B373" s="4">
         <v>0.384269070167765</v>
+      </c>
+      <c r="C373" s="4">
+        <v>0.3737793469823201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
       <c r="A374" s="3">
         <v>0</v>
       </c>
-      <c r="B374" s="5">
+      <c r="B374" s="4">
         <v>0.369091899068005</v>
+      </c>
+      <c r="C374" s="4">
+        <v>0.3638909615557816</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
       <c r="A375" s="3">
         <v>0</v>
       </c>
-      <c r="B375" s="5">
+      <c r="B375" s="4">
         <v>0.35308469200304</v>
+      </c>
+      <c r="C375" s="4">
+        <v>0.3467543340621146</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
       <c r="A376" s="3">
         <v>0</v>
       </c>
-      <c r="B376" s="5">
+      <c r="B376" s="4">
         <v>0.337835459453165</v>
+      </c>
+      <c r="C376" s="4">
+        <v>0.3360863523839897</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
       <c r="A377" s="3">
         <v>0</v>
       </c>
-      <c r="B377" s="5">
+      <c r="B377" s="4">
         <v>0.324916441571183</v>
+      </c>
+      <c r="C377" s="4">
+        <v>0.3290942881959198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
       <c r="A378" s="3">
         <v>0</v>
       </c>
-      <c r="B378" s="5">
+      <c r="B378" s="4">
         <v>0.314236034837831</v>
+      </c>
+      <c r="C378" s="4">
+        <v>0.3130362792773129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
       <c r="A379" s="3">
         <v>0</v>
       </c>
-      <c r="B379" s="5">
+      <c r="B379" s="4">
         <v>0.304571316753206</v>
+      </c>
+      <c r="C379" s="4">
+        <v>0.2908428136770396</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
       <c r="A380" s="3">
         <v>0</v>
       </c>
-      <c r="B380" s="5">
+      <c r="B380" s="4">
         <v>0.295126644952951</v>
+      </c>
+      <c r="C380" s="4">
+        <v>0.2848149473933916</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
       <c r="A381" s="3">
         <v>0</v>
       </c>
-      <c r="B381" s="5">
+      <c r="B381" s="4">
         <v>0.285106377072711</v>
+      </c>
+      <c r="C381" s="4">
+        <v>0.2915899561690486</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
       <c r="A382" s="3">
         <v>0</v>
       </c>
-      <c r="B382" s="5">
+      <c r="B382" s="4">
         <v>0.273714870748128</v>
+      </c>
+      <c r="C382" s="4">
+        <v>0.2599275365267989</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
       <c r="A383" s="3">
         <v>0</v>
       </c>
-      <c r="B383" s="5">
+      <c r="B383" s="4">
         <v>0.260212668280277</v>
+      </c>
+      <c r="C383" s="4">
+        <v>0.2839140654431755</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
       <c r="A384" s="3">
         <v>0</v>
       </c>
-      <c r="B384" s="5">
+      <c r="B384" s="4">
         <v>0.244588051724754</v>
+      </c>
+      <c r="C384" s="4">
+        <v>0.2510781051854513</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
       <c r="A385" s="3">
         <v>0</v>
       </c>
-      <c r="B385" s="5">
+      <c r="B385" s="4">
         <v>0.227335154231954</v>
+      </c>
+      <c r="C385" s="4">
+        <v>0.2159990449812298</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
       <c r="A386" s="3">
         <v>0</v>
       </c>
-      <c r="B386" s="5">
+      <c r="B386" s="4">
         <v>0.208958210057479</v>
+      </c>
+      <c r="C386" s="4">
+        <v>0.1952484437740301</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
       <c r="A387" s="3">
         <v>0</v>
       </c>
-      <c r="B387" s="5">
+      <c r="B387" s="4">
         <v>0.189961453456927</v>
+      </c>
+      <c r="C387" s="4">
+        <v>0.1881567761446022</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
       <c r="A388" s="3">
         <v>0</v>
       </c>
-      <c r="B388" s="5">
+      <c r="B388" s="4">
         <v>0.17084560410305</v>
+      </c>
+      <c r="C388" s="4">
+        <v>0.1801713740501037</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
       <c r="A389" s="3">
         <v>0</v>
       </c>
-      <c r="B389" s="5">
+      <c r="B389" s="4">
         <v>0.151576696470588</v>
+      </c>
+      <c r="C389" s="4">
+        <v>0.1628305173225461</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
       <c r="A390" s="3">
         <v>0</v>
       </c>
-      <c r="B390" s="5">
+      <c r="B390" s="4">
         <v>0.131780577227398</v>
+      </c>
+      <c r="C390" s="4">
+        <v>0.1285686101402078</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
       <c r="A391" s="3">
         <v>0</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391" s="4">
         <v>0.111257709823138</v>
+      </c>
+      <c r="C391" s="4">
+        <v>0.1126768566120085</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
       <c r="A392" s="3">
         <v>0</v>
       </c>
-      <c r="B392" s="5">
+      <c r="B392" s="4">
         <v>0.0898085577074603</v>
+      </c>
+      <c r="C392" s="4">
+        <v>0.08236744814769725</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
       <c r="A393" s="3">
         <v>0</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393" s="4">
         <v>0.0672335843300213</v>
+      </c>
+      <c r="C393" s="4">
+        <v>0.07476823991565675</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
       <c r="A394" s="3">
         <v>0</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394" s="4">
         <v>0.0428645940964119</v>
+      </c>
+      <c r="C394" s="4">
+        <v>0.02962681541048969</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
       <c r="A395" s="3">
         <v>0</v>
       </c>
-      <c r="B395" s="5">
+      <c r="B395" s="4">
         <v>0.0152680123259587</v>
+      </c>
+      <c r="C395" s="4">
+        <v>0.02253101739163844</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
       <c r="A396" s="3">
         <v>0</v>
       </c>
-      <c r="B396" s="5">
+      <c r="B396" s="4">
         <v>-0.0142160773531602</v>
+      </c>
+      <c r="C396" s="4">
+        <v>-0.006314461107218545</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
       <c r="A397" s="3">
         <v>0</v>
       </c>
-      <c r="B397" s="5">
+      <c r="B397" s="4">
         <v>-0.043969811019231</v>
+      </c>
+      <c r="C397" s="4">
+        <v>-0.06671200457085605</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
       <c r="A398" s="3">
         <v>0</v>
       </c>
-      <c r="B398" s="5">
+      <c r="B398" s="4">
         <v>-0.0723753247505398</v>
+      </c>
+      <c r="C398" s="4">
+        <v>-0.07247070056843997</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
       <c r="A399" s="3">
         <v>0</v>
       </c>
-      <c r="B399" s="5">
+      <c r="B399" s="4">
         <v>-0.0978202223721335</v>
+      </c>
+      <c r="C399" s="4">
+        <v>-0.112615887698876</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
       <c r="A400" s="3">
         <v>0</v>
       </c>
-      <c r="B400" s="5">
+      <c r="B400" s="4">
         <v>-0.120226636051728</v>
+      </c>
+      <c r="C400" s="4">
+        <v>-0.115497851244636</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
       <c r="A401" s="3">
         <v>0</v>
       </c>
-      <c r="B401" s="5">
+      <c r="B401" s="4">
         <v>-0.14091562495289</v>
+      </c>
+      <c r="C401" s="4">
+        <v>-0.1350307970973503</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
       <c r="A402" s="3">
         <v>0</v>
       </c>
-      <c r="B402" s="5">
+      <c r="B402" s="4">
         <v>-0.160777014232561</v>
+      </c>
+      <c r="C402" s="4">
+        <v>-0.1594510901123583</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
       <c r="A403" s="3">
         <v>0</v>
       </c>
-      <c r="B403" s="5">
+      <c r="B403" s="4">
         <v>-0.180700629047683</v>
+      </c>
+      <c r="C403" s="4">
+        <v>-0.1912505324286434</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
       <c r="A404" s="3">
         <v>0</v>
       </c>
-      <c r="B404" s="5">
+      <c r="B404" s="4">
         <v>-0.201576294555198</v>
+      </c>
+      <c r="C404" s="4">
+        <v>-0.2018444496028436</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
       <c r="A405" s="3">
         <v>0</v>
       </c>
-      <c r="B405" s="5">
+      <c r="B405" s="4">
         <v>-0.22430691183548</v>
+      </c>
+      <c r="C405" s="4">
+        <v>-0.2425871040955292</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
       <c r="A406" s="3">
         <v>0</v>
       </c>
-      <c r="B406" s="5">
+      <c r="B406" s="4">
         <v>-0.249033321873339</v>
+      </c>
+      <c r="C406" s="4">
+        <v>-0.2475868076197284</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
       <c r="A407" s="3">
         <v>0</v>
       </c>
-      <c r="B407" s="5">
+      <c r="B407" s="4">
         <v>-0.274728813963108</v>
+      </c>
+      <c r="C407" s="4">
+        <v>-0.2760277810836942</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
       <c r="A408" s="3">
         <v>0</v>
       </c>
-      <c r="B408" s="5">
+      <c r="B408" s="4">
         <v>-0.300295937077889</v>
+      </c>
+      <c r="C408" s="4">
+        <v>-0.3055111609285429</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
       <c r="A409" s="3">
         <v>0</v>
       </c>
-      <c r="B409" s="5">
+      <c r="B409" s="4">
         <v>-0.324637240190794</v>
+      </c>
+      <c r="C409" s="4">
+        <v>-0.3352427850733363</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
       <c r="A410" s="3">
         <v>0</v>
       </c>
-      <c r="B410" s="5">
+      <c r="B410" s="4">
         <v>-0.346658728890973</v>
+      </c>
+      <c r="C410" s="4">
+        <v>-0.3423129916460758</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
       <c r="A411" s="3">
         <v>0</v>
       </c>
-      <c r="B411" s="5">
+      <c r="B411" s="4">
         <v>-0.366864389044029</v>
+      </c>
+      <c r="C411" s="4">
+        <v>-0.3532390434272952</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
       <c r="A412" s="3">
         <v>0</v>
       </c>
-      <c r="B412" s="5">
+      <c r="B412" s="4">
         <v>-0.386074260448194</v>
+      </c>
+      <c r="C412" s="4">
+        <v>-0.4018258675345168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
       <c r="A413" s="3">
         <v>0</v>
       </c>
-      <c r="B413" s="5">
+      <c r="B413" s="4">
         <v>-0.404054978489305</v>
+      </c>
+      <c r="C413" s="4">
+        <v>-0.4046239789668341</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
       <c r="A414" s="3">
         <v>0</v>
       </c>
-      <c r="B414" s="5">
+      <c r="B414" s="4">
         <v>-0.420573178553199</v>
+      </c>
+      <c r="C414" s="4">
+        <v>-0.4249433041990335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
       <c r="A415" s="3">
         <v>0</v>
       </c>
-      <c r="B415" s="5">
+      <c r="B415" s="4">
         <v>-0.435395496025713</v>
+      </c>
+      <c r="C415" s="4">
+        <v>-0.4307410702392251</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
       <c r="A416" s="3">
         <v>0</v>
       </c>
-      <c r="B416" s="5">
+      <c r="B416" s="4">
         <v>-0.448253873030734</v>
+      </c>
+      <c r="C416" s="4">
+        <v>-0.4428337152881117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
       <c r="A417" s="3">
         <v>0</v>
       </c>
-      <c r="B417" s="5">
+      <c r="B417" s="4">
         <v>-0.459160756342781</v>
+      </c>
+      <c r="C417" s="4">
+        <v>-0.4594178746775621</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
       <c r="A418" s="3">
         <v>0</v>
       </c>
-      <c r="B418" s="5">
+      <c r="B418" s="4">
         <v>-0.468896275377011</v>
+      </c>
+      <c r="C418" s="4">
+        <v>-0.4578073395268512</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
       <c r="A419" s="3">
         <v>0</v>
       </c>
-      <c r="B419" s="5">
+      <c r="B419" s="4">
         <v>-0.478304293247136</v>
+      </c>
+      <c r="C419" s="4">
+        <v>-0.462070051377469</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
       <c r="A420" s="3">
         <v>0</v>
       </c>
-      <c r="B420" s="5">
+      <c r="B420" s="4">
         <v>-0.488228673066866</v>
+      </c>
+      <c r="C420" s="4">
+        <v>-0.4991208948027598</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
       <c r="A421" s="3">
         <v>0</v>
       </c>
-      <c r="B421" s="5">
+      <c r="B421" s="4">
         <v>-0.499512784611532</v>
+      </c>
+      <c r="C421" s="4">
+        <v>-0.507525801605912</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
       <c r="A422" s="3">
         <v>0</v>
       </c>
-      <c r="B422" s="5">
+      <c r="B422" s="4">
         <v>-0.512059201190976</v>
+      </c>
+      <c r="C422" s="4">
+        <v>-0.5080164237700272</v>
       </c>
     </row>
   </sheetData>
